--- a/biology/Médecine/Hôpital_Chalucet/Hôpital_Chalucet.xlsx
+++ b/biology/Médecine/Hôpital_Chalucet/Hôpital_Chalucet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Chalucet</t>
+          <t>Hôpital_Chalucet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital Chalucet est un ancien hôtel-dieu[1] puis hôpital situé dans la ville de Toulon, en Provence-Alpes-Côte d'Azur dans le Var. Il est partiellement détruit au début du XXIe siècle et transformé en quartier à vocation culturelle[2] accueillant entre autres la médiathèque Chalucet et plusieurs écoles d'enseignement supérieur en bordure du jardin Alexandre-Ier.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital Chalucet est un ancien hôtel-dieu puis hôpital situé dans la ville de Toulon, en Provence-Alpes-Côte d'Azur dans le Var. Il est partiellement détruit au début du XXIe siècle et transformé en quartier à vocation culturelle accueillant entre autres la médiathèque Chalucet et plusieurs écoles d'enseignement supérieur en bordure du jardin Alexandre-Ier.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Chalucet</t>
+          <t>Hôpital_Chalucet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital de la Charité est construit en 1700 par Monseigneur Bonnin de Chalucet, évêque de Toulon. Sa statue figure à l'entrée de la chapelle[3].
-La chapelle de l'hôpital, à l'exclusion de la salle pour les malades aménagée dans l'attique, les façades et toitures du pavillon d'entrée de l'hôpital, le jardin public (ancien jardin de l'hôpital), à l'exclusion des bâtiments et des aménagements liés à la transformation en jardin public sont inscrits au titre des monuments historiques par arrêté du 10 juin 1993[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital de la Charité est construit en 1700 par Monseigneur Bonnin de Chalucet, évêque de Toulon. Sa statue figure à l'entrée de la chapelle.
+La chapelle de l'hôpital, à l'exclusion de la salle pour les malades aménagée dans l'attique, les façades et toitures du pavillon d'entrée de l'hôpital, le jardin public (ancien jardin de l'hôpital), à l'exclusion des bâtiments et des aménagements liés à la transformation en jardin public sont inscrits au titre des monuments historiques par arrêté du 10 juin 1993.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Chalucet</t>
+          <t>Hôpital_Chalucet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
